--- a/Week09/06012020 Activity Log.xlsx
+++ b/Week09/06012020 Activity Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\ISIT-322-Developing-Mobile-Applications\Week09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470D7E17-96B3-423B-991F-3D52119838BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0B1EA9-B1DD-4D48-A858-046B3AB753FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="-14160" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,14 +494,16 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -515,7 +517,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="1">
         <f>SUM(Table1[hrs])</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
